--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2369.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2369.xlsx
@@ -354,7 +354,7 @@
         <v>1.616002914045817</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.847191444748374</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2369.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2369.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8466882687159348</v>
+        <v>1.008049845695496</v>
       </c>
       <c r="B1">
-        <v>1.616002914045817</v>
+        <v>2.107403755187988</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.63422679901123</v>
       </c>
       <c r="D1">
-        <v>1.847191444748374</v>
+        <v>0.8671468496322632</v>
       </c>
       <c r="E1">
-        <v>1.221442879641319</v>
+        <v>0.9318394660949707</v>
       </c>
     </row>
   </sheetData>
